--- a/raw_data/Retouche_amelio_sani.xlsx
+++ b/raw_data/Retouche_amelio_sani.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arnaud/Library/CloudStorage/Dropbox/CLESSN/ellipse_maroc/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E4E46EE-EF65-9544-9990-02B6E3F4EFA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C99BE3-BBD2-AC43-9378-A7DB3D2506AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15600" xr2:uid="{B22FE3AF-2213-A449-AE10-69039D7B67E1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="213">
   <si>
     <t>Données</t>
   </si>
@@ -52,22 +52,9 @@
 Projet d’élevage</t>
   </si>
   <si>
-    <t>Route 
-Électricité 
-Réseau 
-Transport scolaire 
-Alternative économique ( usine..)</t>
-  </si>
-  <si>
     <t>Réseau 
 Route 
 Dispensaire</t>
-  </si>
-  <si>
-    <t>Réseau 
-Route 
-Eau potable 
-Alternative économique</t>
   </si>
   <si>
     <t>Dispensaire 
@@ -174,10 +161,6 @@
 Offres d’emploi</t>
   </si>
   <si>
-    <t>Aménagement route Mibladen-Ahouli 
-Alternative économique</t>
-  </si>
-  <si>
     <t>École secondaire 
 Offres d’emploi 
 Ambulance 
@@ -217,14 +200,6 @@
 Route Mibladen-Ahouli
 Redémarrage mine 
 Recherche alternative</t>
-  </si>
-  <si>
-    <t>Route Mibladen-Sidiyad 
-Réseau communication 
-Dispensaire 
-Électricité 
-Alternative économique 
-Aide financière</t>
   </si>
   <si>
     <t>Sécurité 
@@ -660,63 +635,11 @@
 Soutien mineurs Airs compresseurs</t>
   </si>
   <si>
-    <t>Route 
-Alternative économique (Entreprises privées..) 
-Réhabilitation maisons</t>
-  </si>
-  <si>
-    <t>Alternative économique (Terres agricoles) 
-Offres d’emploi 
-Redémarrage mine 
-Promouvoir tourisme 
-Plaque publique (Indique de Mibladen) 
-Coopératives féminines 
-Médecins et Équipements médicaux 
-Aide financière Femmes veuves 
-Route Mibladen-Ahouli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alternative économique Les usines 
-Équipements médicaux 
-Équipements d’utilité 
-Premier secours </t>
-  </si>
-  <si>
-    <t>Alternative économique Terres agricoles 
-Projets d’élevage 
-Protection mineurs 
-École secondaire  
-Médoc et Équipements médicaux</t>
-  </si>
-  <si>
-    <t>Propriété maisons 
-Souq hebdomadaire 
-École secondaire 
-Plantation reboisement Jardins Mibladen 
-Alternative économique (Terres agricoles, usines..)
-Associations locales</t>
-  </si>
-  <si>
     <t xml:space="preserve">Soutien Mineurs (Vendre plomb)
 Bourses minéraux 
 Aménagement musée 
 Encourage soutien Coopératives féminines 
 École secondaire </t>
-  </si>
-  <si>
-    <t>Alternative économique Terres agricoles 
-Offres d’emploi 
-Médecin médicaments 
-Pavage rues 
-Réhabilitation 
-Projets d’élevage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Médicaments 
-Contrôle silicose 
-Filtration traitement L’eau potable 
-École secondaire
-Alternative économique Terres agricoles </t>
   </si>
   <si>
     <t>Médecin généraliste 
@@ -762,11 +685,6 @@
 Restauration minière Parc muséologique</t>
   </si>
   <si>
-    <t>Alternative économique, Redémarrage mine bon conditions.
-Réhabilitation site Parc muséologique.
-Coopératives féminines</t>
-  </si>
-  <si>
     <t>Réseau internet 
 Route Mibladen-Ahouli 
 Panneaux solaires Les agriculteurs 
@@ -782,91 +700,9 @@
 Plaque publique </t>
   </si>
   <si>
-    <t>Alternative économique Terres agricoles
-Médecin généraliste Équipements médicaux 
-Contrôle silicose
-Coopératives féminines ( tapis, caprie, … )
-École secondaire 
-Conteneurs déchets</t>
-  </si>
-  <si>
-    <t>Alternative économique Terres agricoles , usine 
-Coopératives féminines Équipements médicaux</t>
-  </si>
-  <si>
-    <t>Propriété maisons 
-Réhabilitation maisons 
-Autorisation d’électricité 
-Jardin public 
-Travaux social 
-Conteneurs déchets (dépotoir)
-Offres d’emploi 
-Alternative économique Terres agricoles (Salaires élevé)
-Soutien veuve 
-Coopératives féminines ( tapis ,…)</t>
-  </si>
-  <si>
-    <t>Médecin médicaments 
-Sécurité 
-Alternative économique Terres agricoles
-École secondaire</t>
-  </si>
-  <si>
-    <t>Logement 
-Offres d’emploi 
-Alternative économique Terres agricoles 
-Coopératives féminines 
-Propriété maisons</t>
-  </si>
-  <si>
-    <t>Alternative économique Terres agricoles, Société privée 
-Promouvoir tourisme 
-Coopératives féminines 
-Parc jeux  
-Contrôle silicose  
-Propriété maisons 
-Conteneurs déchets ( dépotoir)
-Reboisement plantation</t>
-  </si>
-  <si>
-    <t>Soutien associations
-Ambulance 
-Alternative économique Terres agricoles, usines 
-Transport scolaire 
-Équipements médicaux 
-Coopératives féminines</t>
-  </si>
-  <si>
-    <t>Alternative économique Terres agricoles, usines 
-Réseau internet 
-L’eau potable 
-Route Mibladen-Ahouli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dispensaire Ahouli 
-Réseau 
-Route Mibladen-Ahouli 
-Alternative économique Terres agricoles, usines 
-Coopératives féminines ( tapis..)
-Classe préscolaire 
-Terrains football </t>
-  </si>
-  <si>
     <t>Réseau internet 
 Route Mibladen-Ahouli 
 Dispensaire</t>
-  </si>
-  <si>
-    <t>Route Mibladen-Ahouli 
-Réseau 
-Alternative économique Terres agricoles..
-Problème d’achat</t>
-  </si>
-  <si>
-    <t>Réseau 
-Route Mibladen-Ahouli 
-Alternative économique Terres agricoles, Projet d’élevage 
-Électricité</t>
   </si>
   <si>
     <t>Réseau 
@@ -880,38 +716,9 @@
 Dispensaire</t>
   </si>
   <si>
-    <t xml:space="preserve">Réseau 
-Route 
-Alternative économique Terres agricoles, usines 
-Cadre législatif </t>
-  </si>
-  <si>
-    <t>Réseau communication 
-Route Mibladen-Ahouli 
-Alternative économique Terres usines 
-Dispensaire Ahouli</t>
-  </si>
-  <si>
-    <t>Route 
-Réseau 
-Dispensaire Ahouli Alternative économique Terres agricoles, usines</t>
-  </si>
-  <si>
-    <t>Alternative économique Terres agricoles Sidi yad 
-Projet pâturage 
-Route Mibladen Sidi-ayad 
-Transport scolaire 
-Dispensaire</t>
-  </si>
-  <si>
     <t>Cadre législatif  (Permission mineurs )
 Soutien associations Coopératives minière 
 Vendre produits les intermédiaires</t>
-  </si>
-  <si>
-    <t>Permission mineurs 
-Bourses minéraux Mibladen 
-Alternative économique Terres agricoles, usine…</t>
   </si>
   <si>
     <t>Route Mibladen-Ahouli 
@@ -941,62 +748,6 @@
 Activités sportives enfant</t>
   </si>
   <si>
-    <t>Propriété maisons 
-Alternative économique Terres agricoles, usines, tourisme..
-Faculté Midelt 
-Offres d’emploi La jeunesse 
-École secondaire 
-Médecin et équipements médicaux 
-Coopératives féminines Plantes aromatiques ( caprie, Péganon harmala 
-Soutien mineurs (Cadre légale la cadet, vendre…)
-Problème l’assainissement ( traitement) 
-Dépotoir Mibladen (Conteneurs déchets)</t>
-  </si>
-  <si>
-    <t>Séparation terres collectives 
-Soutien mineurs Des permissions, Cadre légal 
-Alternative économique Terres agricoles.
-Offres d’emploi 
-Coopératives féminines ( artisanat, …)
-Médecin équipements 
-Contrôle silicose 
-Dépotoir 
-Conteneurs déchets Des mains 
-Conversion minière Parc muséologique 
-Bourses minéraux</t>
-  </si>
-  <si>
-    <t>Alternative économique Terres agricoles, usine 
-Offres d’emploi 
-Médecin généraliste  
-Promouvoir tourisme 
-Contrôle silicose
-Dépotoir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Réseau 
-Alternative économique Des terres 
-Promouvoir tourisme, Projet agricoles
-Transport publique </t>
-  </si>
-  <si>
-    <t>Alternative économique usines
-Offres d’emploi 
-École secondaire 
-Dépotoir 
-Conteneurs déchets 
-Médecin et Équipements médicaux 
-Coopératives féminines ( tapis, artisans</t>
-  </si>
-  <si>
-    <t>Promouvoir tourisme 
-Problème commercialisation 
-Alternative économique Terres agricoles, usines 
-Propriété maisons 
-Réhabilitations maisons (Logement ancien, Nécessite restauration)
-Souq hebdomadaire</t>
-  </si>
-  <si>
     <t>Retraite interêt touristique (Parc muséologique d’Ahouli)
 Aménagement route Mibladen Ahouli 
 Réseau internet 
@@ -1007,48 +758,6 @@
 Permission mineurs</t>
   </si>
   <si>
-    <t xml:space="preserve">Offres d’emploi 
-Cadre mineurs 
-Transport 
-Réseau internet 
-Route 
-Alternative économique 
-Coopératives mineurs </t>
-  </si>
-  <si>
-    <t>Aménagement route Mibladen-Ahouli 
-Alternative économique Projets pâturage</t>
-  </si>
-  <si>
-    <t>Commercialisation produit 
-Alternative économique Salaires élevés</t>
-  </si>
-  <si>
-    <t>Alternative économique Terres agricoles 
-Route Mibladen-Ahouli 
-Réseau communication 
-Permission minière
-Transport publique</t>
-  </si>
-  <si>
-    <t>Alternative économique ( usines, Sociétés privées, …)
-Coopératives féminines 
-Offres d’emploi 
-Médecin médicaments 
-Contrôle silicose 
-L’administration proche service citoyen de Mibladen (Commune rurale)</t>
-  </si>
-  <si>
-    <t>Offres d’emploi 
-Médecin et Équipements médicaux 
-Alternative économique Terres agricoles; usines 
-Soutien femme Coopératives féminines (projet couture et broderies,..)
-Analphabétismes 
-Promouvoir tourisme 
-Ambulance Mibladen 
-Maisons jeunesses</t>
-  </si>
-  <si>
     <t>Conteneurs déchets 
 Association soutien ( aide)
 Propriété maisons 
@@ -1166,29 +875,6 @@
 Bus+C196</t>
   </si>
   <si>
-    <t>Alternative économique Complexes touristique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alternative économique Terres agricoles 
-Hôpital équipements 
-Coopératives féminines </t>
-  </si>
-  <si>
-    <t>Alternative économique (Redémarrage mine) 
-Hôpital équipements (Contrôle silicose)
-Ambulance 
-École secondaire</t>
-  </si>
-  <si>
-    <t>Aménagement route Mibladen-ahouli 
-Complexe touristique 
-Bourse minéraux
-Jardin Mibladen 
-Parc jeux enfants 
-Coopératives féminines Plantes médicinales ( kbar), Halfa, 
-Promouvoir artisans</t>
-  </si>
-  <si>
     <t>Réseau communication 
 Aménagement route Mibladen-Ahouli
 Souq hebdomadaire 
@@ -1196,25 +882,6 @@
 Promouvoir tourisme  (Pec touristique)</t>
   </si>
   <si>
-    <t>Offres d’emploi 
-Alternative économique Terres agricoles 
-Réseau communication 
-Route 
-Électricité Ahouli</t>
-  </si>
-  <si>
-    <t>Alternative économique Terres agricoles 
-Pavage rues 
-Aménagement piscine 
-Propriété maisons</t>
-  </si>
-  <si>
-    <t>Offres d’emploi 
-Alternative économique (Complexes tourisme) 
-École secondaire 
-Coopératives féminines</t>
-  </si>
-  <si>
     <t>Promouvoir tourisme Mibladen-Ahouli (Complexe touristique)
 Offres d’emploi La jeunesse 
 Hôpital équipements 
@@ -1225,23 +892,6 @@
 Hôpital équipements 
 Réhabilitation écoles 
 Eau potable</t>
-  </si>
-  <si>
-    <t>Alternative économique (Terres agricoles, Soutien pâturage..)
-Route pont Mibladen-Ahouli 
-Réseau communication</t>
-  </si>
-  <si>
-    <t>Offres d’emploi 
-Alternative économique Terres agricoles
-Restauration mine d’Ahouli
-Complexe tourisme 
-Coopératives féminines (Valorisations plantes ( armoises, romarin, taylalot ..)</t>
-  </si>
-  <si>
-    <t>Route pont 
-Alternative économique (Terres agricoles) 
-Offres d’emploi La jeunesse</t>
   </si>
   <si>
     <t>Réseau communication Internet Ahouli 
@@ -1264,36 +914,6 @@
 CADITE Mibladen-Ahouli Permission d’achat 
 Souq hebdomadaire 
 Bourses minéraux</t>
-  </si>
-  <si>
-    <t>Permission minière 
-Protection mineurs 
-Redémarrage mine 
-Souq hebdomadaire 
-Aménagement route Mibladen-Ahouli, Ait Tir 
-École secondaire 
-Transport scolaire 
-Alternative économique Terres agricoles 
-Promouvoir tourisme 
-Offres d’emploi</t>
-  </si>
-  <si>
-    <t>Offres d’emploi
-Alternative économique 
-Route 
-Problème forestiers (Plantation arbres Terres pastorales)</t>
-  </si>
-  <si>
-    <t>Alternative économique Terres agricoles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hôpital équipements 
-Contrôle silicose  
-Alternative économique Terres agricoles </t>
-  </si>
-  <si>
-    <t>Offres d’emploi 
-Alternative économique Terres agricoles , Ouverture usines</t>
   </si>
   <si>
     <t>Médecin médicaments 
@@ -1324,6 +944,399 @@
     <t>Redémarrage mine 
 Hôpital équipements Médecin généraliste 
 Bus</t>
+  </si>
+  <si>
+    <t>Aménagement route Mibladen-Ahouli 
+Complexe touristique 
+Bourse minéraux
+Jardin Mibladen 
+Parc jeux enfants 
+Coopératives féminines Plantes médicinales ( kbar), Halfa, 
+Promouvoir artisans</t>
+  </si>
+  <si>
+    <t>Complexes touristique</t>
+  </si>
+  <si>
+    <t>Alternative économique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terres agricoles 
+Hôpital équipements 
+Coopératives féminines </t>
+  </si>
+  <si>
+    <t>(Redémarrage mine) 
+Hôpital équipements (Contrôle silicose)
+Ambulance 
+École secondaire</t>
+  </si>
+  <si>
+    <t>Offres d’emploi 
+Terres agricoles 
+Réseau communication 
+Route 
+Électricité Ahouli</t>
+  </si>
+  <si>
+    <t>Terres agricoles 
+Pavage rues 
+Aménagement piscine 
+Propriété maisons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alternative économique </t>
+  </si>
+  <si>
+    <t>Offres d’emploi 
+(Complexes tourisme) 
+École secondaire 
+Coopératives féminines</t>
+  </si>
+  <si>
+    <t>(Terres agricoles, Soutien pâturage..)
+Route pont Mibladen-Ahouli 
+Réseau communication</t>
+  </si>
+  <si>
+    <t>Offres d’emploi Terres agricoles
+Restauration mine d’Ahouli
+Complexe tourisme 
+Coopératives féminines (Valorisations plantes ( armoises, romarin, taylalot ..)</t>
+  </si>
+  <si>
+    <t>Route pont 
+(Terres agricoles) 
+Offres d’emploi La jeunesse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aménagement route Mibladen-Ahouli 
+</t>
+  </si>
+  <si>
+    <t>Permission minière 
+Protection mineurs 
+Redémarrage mine 
+Souq hebdomadaire 
+Aménagement route Mibladen-Ahouli, Ait Tir 
+École secondaire 
+Transport scolaire 
+Terres agricoles 
+Promouvoir tourisme 
+Offres d’emploi</t>
+  </si>
+  <si>
+    <t>Offres d’emploi 
+Route 
+Problème forestiers (Plantation arbres Terres pastorales)</t>
+  </si>
+  <si>
+    <t>Terres agricoles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hôpital équipements 
+Contrôle silicose  
+Terres agricoles </t>
+  </si>
+  <si>
+    <t>Offres d’emploi 
+Terres agricoles , Ouverture usines</t>
+  </si>
+  <si>
+    <t>Route 
+(Entreprises privées..) 
+Réhabilitation maisons</t>
+  </si>
+  <si>
+    <t>(Terres agricoles) 
+Offres d’emploi 
+Redémarrage mine 
+Promouvoir tourisme 
+Plaque publique (Indique de Mibladen) 
+Coopératives féminines 
+Médecins et Équipements médicaux 
+Aide financière Femmes veuves 
+Route Mibladen-Ahouli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les usines 
+Équipements médicaux 
+Équipements d’utilité 
+Premier secours </t>
+  </si>
+  <si>
+    <t>Terres agricoles 
+Projets d’élevage 
+Protection mineurs 
+École secondaire  
+Médoc et Équipements médicaux</t>
+  </si>
+  <si>
+    <t>Propriété maisons 
+Souq hebdomadaire 
+École secondaire 
+Plantation reboisement Jardins Mibladen 
+(Terres agricoles, usines..)
+Associations locales</t>
+  </si>
+  <si>
+    <t>Terres agricoles 
+Offres d’emploi 
+Médecin médicaments 
+Pavage rues 
+Réhabilitation 
+Projets d’élevage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Médicaments 
+Contrôle silicose 
+Filtration traitement L’eau potable 
+École secondaire
+Terres agricoles </t>
+  </si>
+  <si>
+    <t>Redémarrage mine bon conditions.
+Réhabilitation site Parc muséologique.
+Coopératives féminines</t>
+  </si>
+  <si>
+    <t>Terres agricoles
+Médecin généraliste Équipements médicaux 
+Contrôle silicose
+Coopératives féminines ( tapis, caprie, … )
+École secondaire 
+Conteneurs déchets</t>
+  </si>
+  <si>
+    <t>Terres agricoles , usine 
+Coopératives féminines Équipements médicaux</t>
+  </si>
+  <si>
+    <t>Propriété maisons 
+Réhabilitation maisons 
+Autorisation d’électricité 
+Jardin public 
+Travaux social 
+Conteneurs déchets (dépotoir)
+Offres d’emploi 
+Terres agricoles (Salaires élevé)
+Soutien veuve 
+Coopératives féminines ( tapis ,…)</t>
+  </si>
+  <si>
+    <t>Médecin médicaments 
+Sécurité 
+Terres agricoles
+École secondaire</t>
+  </si>
+  <si>
+    <t>Logement 
+Offres d’emploi 
+Terres agricoles 
+Coopératives féminines 
+Propriété maisons</t>
+  </si>
+  <si>
+    <t>Terres agricoles, Société privée 
+Promouvoir tourisme 
+Coopératives féminines 
+Parc jeux  
+Contrôle silicose  
+Propriété maisons 
+Conteneurs déchets ( dépotoir)
+Reboisement plantation</t>
+  </si>
+  <si>
+    <t>Soutien associations
+Ambulance 
+Terres agricoles, usines 
+Transport scolaire 
+Équipements médicaux 
+Coopératives féminines</t>
+  </si>
+  <si>
+    <t>Terres agricoles, usines 
+Réseau internet 
+L’eau potable 
+Route Mibladen-Ahouli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dispensaire Ahouli 
+Réseau 
+Route Mibladen-Ahouli 
+Terres agricoles, usines 
+Coopératives féminines ( tapis..)
+Classe préscolaire 
+Terrains football </t>
+  </si>
+  <si>
+    <t>Route Mibladen-Ahouli 
+Réseau 
+Terres agricoles..
+Problème d’achat</t>
+  </si>
+  <si>
+    <t>Réseau 
+Route Mibladen-Ahouli 
+Terres agricoles, Projet d’élevage 
+Électricité</t>
+  </si>
+  <si>
+    <t>Route 
+Électricité 
+Réseau 
+Transport scolaire 
+( usine..)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Réseau 
+Route 
+Terres agricoles, usines 
+Cadre législatif </t>
+  </si>
+  <si>
+    <t>Route Mibladen-Sidiyad 
+Réseau communication 
+Dispensaire 
+Électricité  
+Aide financière</t>
+  </si>
+  <si>
+    <t>Réseau communication 
+Route Mibladen-Ahouli 
+Terres usines 
+Dispensaire Ahouli</t>
+  </si>
+  <si>
+    <t>Route 
+Réseau 
+Dispensaire Ahouli Terres agricoles, usines</t>
+  </si>
+  <si>
+    <t>Terres agricoles Sidi yad 
+Projet pâturage 
+Route Mibladen Sidi-ayad 
+Transport scolaire 
+Dispensaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Réseau 
+Route 
+Eau potable </t>
+  </si>
+  <si>
+    <t>Permission mineurs 
+Bourses minéraux Mibladen 
+Terres agricoles, usine…</t>
+  </si>
+  <si>
+    <t>Propriété maisons 
+Terres agricoles, usines, tourisme..
+Faculté Midelt 
+Offres d’emploi La jeunesse 
+École secondaire 
+Médecin et équipements médicaux 
+Coopératives féminines Plantes aromatiques ( caprie, Péganon harmala 
+Soutien mineurs (Cadre légale la cadet, vendre…)
+Problème l’assainissement ( traitement) 
+Dépotoir Mibladen (Conteneurs déchets)</t>
+  </si>
+  <si>
+    <t>Séparation terres collectives 
+Soutien mineurs Des permissions, Cadre légal 
+Terres agricoles.
+Offres d’emploi 
+Coopératives féminines ( artisanat, …)
+Médecin équipements 
+Contrôle silicose 
+Dépotoir 
+Conteneurs déchets Des mains 
+Conversion minière Parc muséologique 
+Bourses minéraux</t>
+  </si>
+  <si>
+    <t>Terres agricoles, usine 
+Offres d’emploi 
+Médecin généraliste  
+Promouvoir tourisme 
+Contrôle silicose
+Dépotoir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Réseau 
+Des terres 
+Promouvoir tourisme, Projet agricoles
+Transport publique </t>
+  </si>
+  <si>
+    <t>usines
+Offres d’emploi 
+École secondaire 
+Dépotoir 
+Conteneurs déchets 
+Médecin et Équipements médicaux 
+Coopératives féminines ( tapis, artisans</t>
+  </si>
+  <si>
+    <t>Promouvoir tourisme 
+Problème commercialisation 
+Terres agricoles, usines 
+Propriété maisons 
+Réhabilitations maisons (Logement ancien, Nécessite restauration)
+Souq hebdomadaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Offres d’emploi 
+Cadre mineurs 
+Transport 
+Réseau internet 
+Route  
+Coopératives mineurs </t>
+  </si>
+  <si>
+    <t>Aménagement route Mibladen-Ahouli 
+Projets pâturage</t>
+  </si>
+  <si>
+    <t>Commercialisation produit 
+Salaires élevés</t>
+  </si>
+  <si>
+    <t>Terres agricoles 
+Route Mibladen-Ahouli 
+Réseau communication 
+Permission minière
+Transport publique</t>
+  </si>
+  <si>
+    <t>( usines, Sociétés privées, …)
+Coopératives féminines 
+Offres d’emploi 
+Médecin médicaments 
+Contrôle silicose 
+L’administration proche service citoyen de Mibladen (Commune rurale)</t>
+  </si>
+  <si>
+    <t>Offres d’emploi 
+Médecin et Équipements médicaux 
+Terres agricoles; usines 
+Soutien femme Coopératives féminines (projet couture et broderies,..)
+Analphabétismes 
+Promouvoir tourisme 
+Ambulance Mibladen 
+Maisons jeunesses</t>
+  </si>
+  <si>
+    <t>Lieu</t>
+  </si>
+  <si>
+    <t>Mibladen</t>
+  </si>
+  <si>
+    <t>Ksar Ahouli</t>
+  </si>
+  <si>
+    <t>Ahouli</t>
   </si>
 </sst>
 </file>
@@ -1709,1062 +1722,1940 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C841392D-AD6F-6C4E-87C3-446C5F0DF24C}">
-  <dimension ref="C1:D210"/>
+  <dimension ref="B1:G262"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A203" workbookViewId="0">
+      <selection activeCell="C207" sqref="B1:C207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="40" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="3:4" ht="84" x14ac:dyDescent="0.2">
+    <row r="2" spans="3:7" ht="84" x14ac:dyDescent="0.2">
       <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C3" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="3:7" ht="28" x14ac:dyDescent="0.2">
+      <c r="C4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" ht="42" x14ac:dyDescent="0.2">
+      <c r="C5" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C3" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="4" spans="3:4" ht="28" x14ac:dyDescent="0.2">
-      <c r="C4" s="2" t="s">
+      <c r="G5" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" ht="56" x14ac:dyDescent="0.2">
+      <c r="C6" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" ht="112" x14ac:dyDescent="0.2">
+      <c r="C7" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" ht="70" x14ac:dyDescent="0.2">
+      <c r="C8" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" ht="56" x14ac:dyDescent="0.2">
+      <c r="C9" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="3:4" ht="42" x14ac:dyDescent="0.2">
-      <c r="C5" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="G9" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" ht="70" x14ac:dyDescent="0.2">
+      <c r="C10" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7" ht="70" x14ac:dyDescent="0.2">
+      <c r="C11" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7" ht="28" x14ac:dyDescent="0.2">
+      <c r="C12" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="3:4" ht="56" x14ac:dyDescent="0.2">
-      <c r="C6" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="7" spans="3:4" ht="112" x14ac:dyDescent="0.2">
-      <c r="C7" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="8" spans="3:4" ht="70" x14ac:dyDescent="0.2">
-      <c r="C8" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="9" spans="3:4" ht="56" x14ac:dyDescent="0.2">
-      <c r="C9" s="2" t="s">
+      <c r="G12" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7" ht="56" x14ac:dyDescent="0.2">
+      <c r="C13" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7" ht="56" x14ac:dyDescent="0.2">
+      <c r="C14" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7" ht="70" x14ac:dyDescent="0.2">
+      <c r="C15" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7" ht="56" x14ac:dyDescent="0.2">
+      <c r="C16" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" ht="42" x14ac:dyDescent="0.2">
+      <c r="C17" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" ht="42" x14ac:dyDescent="0.2">
+      <c r="C18" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" ht="70" x14ac:dyDescent="0.2">
+      <c r="C19" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" ht="42" x14ac:dyDescent="0.2">
+      <c r="C20" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" ht="28" x14ac:dyDescent="0.2">
+      <c r="C21" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" ht="42" x14ac:dyDescent="0.2">
+      <c r="C22" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" ht="28" x14ac:dyDescent="0.2">
+      <c r="C23" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" ht="42" x14ac:dyDescent="0.2">
+      <c r="C24" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" ht="154" x14ac:dyDescent="0.2">
+      <c r="C25" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" ht="56" x14ac:dyDescent="0.2">
+      <c r="C26" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" ht="140" x14ac:dyDescent="0.2">
+      <c r="C27" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" ht="56" x14ac:dyDescent="0.2">
+      <c r="C28" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C29" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" ht="42" x14ac:dyDescent="0.2">
+      <c r="C30" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7" ht="28" x14ac:dyDescent="0.2">
+      <c r="C31" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7" ht="42" x14ac:dyDescent="0.2">
+      <c r="C32" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" ht="70" x14ac:dyDescent="0.2">
+      <c r="C33" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="3:4" ht="70" x14ac:dyDescent="0.2">
-      <c r="C10" s="2" t="s">
+      <c r="G33" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" ht="28" x14ac:dyDescent="0.2">
+      <c r="C34" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" ht="224" x14ac:dyDescent="0.2">
+      <c r="C35" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7" ht="42" x14ac:dyDescent="0.2">
+      <c r="C36" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7" ht="70" x14ac:dyDescent="0.2">
+      <c r="C37" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="11" spans="3:4" ht="70" x14ac:dyDescent="0.2">
-      <c r="C11" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="12" spans="3:4" ht="28" x14ac:dyDescent="0.2">
-      <c r="C12" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="3:4" ht="56" x14ac:dyDescent="0.2">
-      <c r="C13" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="14" spans="3:4" ht="56" x14ac:dyDescent="0.2">
-      <c r="C14" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="15" spans="3:4" ht="70" x14ac:dyDescent="0.2">
-      <c r="C15" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="16" spans="3:4" ht="56" x14ac:dyDescent="0.2">
-      <c r="C16" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" ht="42" x14ac:dyDescent="0.2">
-      <c r="C17" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" ht="56" x14ac:dyDescent="0.2">
-      <c r="C18" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3" ht="84" x14ac:dyDescent="0.2">
-      <c r="C19" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3" ht="42" x14ac:dyDescent="0.2">
-      <c r="C20" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3" ht="28" x14ac:dyDescent="0.2">
-      <c r="C21" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3" ht="42" x14ac:dyDescent="0.2">
-      <c r="C22" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="23" spans="3:3" ht="28" x14ac:dyDescent="0.2">
-      <c r="C23" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3" ht="42" x14ac:dyDescent="0.2">
-      <c r="C24" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="25" spans="3:3" ht="154" x14ac:dyDescent="0.2">
-      <c r="C25" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="26" spans="3:3" ht="56" x14ac:dyDescent="0.2">
-      <c r="C26" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="27" spans="3:3" ht="140" x14ac:dyDescent="0.2">
-      <c r="C27" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="28" spans="3:3" ht="70" x14ac:dyDescent="0.2">
-      <c r="C28" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C29" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="30" spans="3:3" ht="42" x14ac:dyDescent="0.2">
-      <c r="C30" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="31" spans="3:3" ht="42" x14ac:dyDescent="0.2">
-      <c r="C31" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="32" spans="3:3" ht="42" x14ac:dyDescent="0.2">
-      <c r="C32" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3" ht="70" x14ac:dyDescent="0.2">
-      <c r="C33" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3" ht="28" x14ac:dyDescent="0.2">
-      <c r="C34" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="35" spans="3:3" ht="224" x14ac:dyDescent="0.2">
-      <c r="C35" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="36" spans="3:3" ht="42" x14ac:dyDescent="0.2">
-      <c r="C36" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="37" spans="3:3" ht="70" x14ac:dyDescent="0.2">
-      <c r="C37" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="38" spans="3:3" ht="42" x14ac:dyDescent="0.2">
+      <c r="G37" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7" ht="42" x14ac:dyDescent="0.2">
       <c r="C38" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="3:3" ht="42" x14ac:dyDescent="0.2">
+      <c r="G38" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7" ht="42" x14ac:dyDescent="0.2">
       <c r="C39" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7" ht="126" x14ac:dyDescent="0.2">
+      <c r="C40" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7" ht="56" x14ac:dyDescent="0.2">
+      <c r="C41" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="42" spans="3:7" ht="70" x14ac:dyDescent="0.2">
+      <c r="C42" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="43" spans="3:7" ht="84" x14ac:dyDescent="0.2">
+      <c r="C43" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="44" spans="3:7" ht="70" x14ac:dyDescent="0.2">
+      <c r="C44" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="45" spans="3:7" ht="84" x14ac:dyDescent="0.2">
+      <c r="C45" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="46" spans="3:7" ht="70" x14ac:dyDescent="0.2">
+      <c r="C46" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="47" spans="3:7" ht="112" x14ac:dyDescent="0.2">
+      <c r="C47" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="48" spans="3:7" ht="112" x14ac:dyDescent="0.2">
+      <c r="C48" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="49" spans="3:7" ht="98" x14ac:dyDescent="0.2">
+      <c r="C49" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" spans="3:7" ht="42" x14ac:dyDescent="0.2">
+      <c r="C50" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="40" spans="3:3" ht="126" x14ac:dyDescent="0.2">
-      <c r="C40" s="2" t="s">
+      <c r="G50" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="51" spans="3:7" ht="70" x14ac:dyDescent="0.2">
+      <c r="C51" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="52" spans="3:7" ht="112" x14ac:dyDescent="0.2">
+      <c r="C52" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="41" spans="3:3" ht="56" x14ac:dyDescent="0.2">
-      <c r="C41" s="2" t="s">
+      <c r="G52" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="53" spans="3:7" ht="42" x14ac:dyDescent="0.2">
+      <c r="C53" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="54" spans="3:7" ht="28" x14ac:dyDescent="0.2">
+      <c r="C54" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="55" spans="3:7" ht="70" x14ac:dyDescent="0.2">
+      <c r="C55" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="42" spans="3:3" ht="70" x14ac:dyDescent="0.2">
-      <c r="C42" s="2" t="s">
+      <c r="G55" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="56" spans="3:7" ht="84" x14ac:dyDescent="0.2">
+      <c r="C56" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="43" spans="3:3" ht="98" x14ac:dyDescent="0.2">
-      <c r="C43" s="2" t="s">
+      <c r="G56" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="57" spans="3:7" ht="84" x14ac:dyDescent="0.2">
+      <c r="C57" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="58" spans="3:7" ht="28" x14ac:dyDescent="0.2">
+      <c r="C58" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="59" spans="3:7" ht="140" x14ac:dyDescent="0.2">
+      <c r="C59" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="60" spans="3:7" ht="56" x14ac:dyDescent="0.2">
+      <c r="C60" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="61" spans="3:7" ht="70" x14ac:dyDescent="0.2">
+      <c r="C61" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="62" spans="3:7" ht="112" x14ac:dyDescent="0.2">
+      <c r="C62" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="63" spans="3:7" ht="84" x14ac:dyDescent="0.2">
+      <c r="C63" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="64" spans="3:7" ht="56" x14ac:dyDescent="0.2">
+      <c r="C64" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="65" spans="3:7" ht="42" x14ac:dyDescent="0.2">
+      <c r="C65" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="66" spans="3:7" ht="98" x14ac:dyDescent="0.2">
+      <c r="C66" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="67" spans="3:7" ht="42" x14ac:dyDescent="0.2">
+      <c r="C67" s="2" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="44" spans="3:3" ht="70" x14ac:dyDescent="0.2">
-      <c r="C44" s="2" t="s">
+      <c r="G67" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="68" spans="3:7" ht="56" x14ac:dyDescent="0.2">
+      <c r="C68" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="69" spans="3:7" ht="56" x14ac:dyDescent="0.2">
+      <c r="C69" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="70" spans="3:7" ht="56" x14ac:dyDescent="0.2">
+      <c r="C70" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="71" spans="3:7" ht="56" x14ac:dyDescent="0.2">
+      <c r="C71" s="2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="45" spans="3:3" ht="84" x14ac:dyDescent="0.2">
-      <c r="C45" s="2" t="s">
+      <c r="G71" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="72" spans="3:7" ht="42" x14ac:dyDescent="0.2">
+      <c r="C72" s="2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="46" spans="3:3" ht="70" x14ac:dyDescent="0.2">
-      <c r="C46" s="2" t="s">
+      <c r="G72" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="73" spans="3:7" ht="56" x14ac:dyDescent="0.2">
+      <c r="C73" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="74" spans="3:7" ht="56" x14ac:dyDescent="0.2">
+      <c r="C74" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="75" spans="3:7" ht="70" x14ac:dyDescent="0.2">
+      <c r="C75" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="76" spans="3:7" ht="56" x14ac:dyDescent="0.2">
+      <c r="C76" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="77" spans="3:7" ht="56" x14ac:dyDescent="0.2">
+      <c r="C77" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="78" spans="3:7" ht="42" x14ac:dyDescent="0.2">
+      <c r="C78" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="79" spans="3:7" ht="70" x14ac:dyDescent="0.2">
+      <c r="C79" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="80" spans="3:7" ht="56" x14ac:dyDescent="0.2">
+      <c r="C80" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="81" spans="3:7" ht="42" x14ac:dyDescent="0.2">
+      <c r="C81" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="82" spans="3:7" ht="70" x14ac:dyDescent="0.2">
+      <c r="C82" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="83" spans="3:7" ht="70" x14ac:dyDescent="0.2">
+      <c r="C83" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="84" spans="3:7" ht="42" x14ac:dyDescent="0.2">
+      <c r="C84" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="85" spans="3:7" ht="42" x14ac:dyDescent="0.2">
+      <c r="C85" s="2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="47" spans="3:3" ht="112" x14ac:dyDescent="0.2">
-      <c r="C47" s="2" t="s">
+      <c r="G85" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="86" spans="3:7" ht="70" x14ac:dyDescent="0.2">
+      <c r="C86" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="87" spans="3:7" ht="42" x14ac:dyDescent="0.2">
+      <c r="C87" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="88" spans="3:7" ht="70" x14ac:dyDescent="0.2">
+      <c r="C88" s="2" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="48" spans="3:3" ht="112" x14ac:dyDescent="0.2">
-      <c r="C48" s="2" t="s">
+      <c r="G88" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="89" spans="3:7" ht="140" x14ac:dyDescent="0.2">
+      <c r="C89" s="2" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="49" spans="3:3" ht="98" x14ac:dyDescent="0.2">
-      <c r="C49" s="2" t="s">
+      <c r="G89" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="90" spans="3:7" ht="98" x14ac:dyDescent="0.2">
+      <c r="C90" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="50" spans="3:3" ht="42" x14ac:dyDescent="0.2">
-      <c r="C50" s="2" t="s">
+      <c r="G90" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="91" spans="3:7" ht="168" x14ac:dyDescent="0.2">
+      <c r="C91" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="92" spans="3:7" ht="154" x14ac:dyDescent="0.2">
+      <c r="C92" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="93" spans="3:7" ht="84" x14ac:dyDescent="0.2">
+      <c r="C93" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="94" spans="3:7" ht="56" x14ac:dyDescent="0.2">
+      <c r="C94" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="95" spans="3:7" ht="98" x14ac:dyDescent="0.2">
+      <c r="C95" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="96" spans="3:7" ht="98" x14ac:dyDescent="0.2">
+      <c r="C96" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" ht="140" x14ac:dyDescent="0.2">
+      <c r="C97" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="51" spans="3:3" ht="70" x14ac:dyDescent="0.2">
-      <c r="C51" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="52" spans="3:3" ht="112" x14ac:dyDescent="0.2">
-      <c r="C52" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="53" spans="3:3" ht="56" x14ac:dyDescent="0.2">
-      <c r="C53" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="54" spans="3:3" ht="28" x14ac:dyDescent="0.2">
-      <c r="C54" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="55" spans="3:3" ht="70" x14ac:dyDescent="0.2">
-      <c r="C55" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="56" spans="3:3" ht="84" x14ac:dyDescent="0.2">
-      <c r="C56" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="57" spans="3:3" ht="84" x14ac:dyDescent="0.2">
-      <c r="C57" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C58" s="2"/>
-    </row>
-    <row r="59" spans="3:3" ht="28" x14ac:dyDescent="0.2">
-      <c r="C59" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="60" spans="3:3" ht="154" x14ac:dyDescent="0.2">
-      <c r="C60" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="61" spans="3:3" ht="56" x14ac:dyDescent="0.2">
-      <c r="C61" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="62" spans="3:3" ht="70" x14ac:dyDescent="0.2">
-      <c r="C62" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="63" spans="3:3" ht="126" x14ac:dyDescent="0.2">
-      <c r="C63" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="64" spans="3:3" ht="84" x14ac:dyDescent="0.2">
-      <c r="C64" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="65" spans="3:3" ht="56" x14ac:dyDescent="0.2">
-      <c r="C65" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="66" spans="3:3" ht="42" x14ac:dyDescent="0.2">
-      <c r="C66" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="67" spans="3:3" ht="98" x14ac:dyDescent="0.2">
-      <c r="C67" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="68" spans="3:3" ht="42" x14ac:dyDescent="0.2">
-      <c r="C68" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="69" spans="3:3" ht="56" x14ac:dyDescent="0.2">
-      <c r="C69" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="70" spans="3:3" ht="70" x14ac:dyDescent="0.2">
-      <c r="C70" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="71" spans="3:3" ht="56" x14ac:dyDescent="0.2">
-      <c r="C71" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="72" spans="3:3" ht="56" x14ac:dyDescent="0.2">
-      <c r="C72" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="73" spans="3:3" ht="42" x14ac:dyDescent="0.2">
-      <c r="C73" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="74" spans="3:3" ht="56" x14ac:dyDescent="0.2">
-      <c r="C74" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="3:3" ht="56" x14ac:dyDescent="0.2">
-      <c r="C75" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="76" spans="3:3" ht="70" x14ac:dyDescent="0.2">
-      <c r="C76" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="3:3" ht="56" x14ac:dyDescent="0.2">
-      <c r="C77" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="78" spans="3:3" ht="56" x14ac:dyDescent="0.2">
-      <c r="C78" s="2" t="s">
+      <c r="G97" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" ht="98" x14ac:dyDescent="0.2">
+      <c r="C98" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="79" spans="3:3" ht="42" x14ac:dyDescent="0.2">
-      <c r="C79" s="2" t="s">
+      <c r="G98" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" ht="84" x14ac:dyDescent="0.2">
+      <c r="C99" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" ht="56" x14ac:dyDescent="0.2">
+      <c r="C100" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" ht="28" x14ac:dyDescent="0.2">
+      <c r="C101" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7" ht="28" x14ac:dyDescent="0.2">
+      <c r="C102" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" ht="56" x14ac:dyDescent="0.2">
+      <c r="C103" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="80" spans="3:3" ht="84" x14ac:dyDescent="0.2">
-      <c r="C80" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="81" spans="3:3" ht="56" x14ac:dyDescent="0.2">
-      <c r="C81" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="82" spans="3:3" ht="56" x14ac:dyDescent="0.2">
-      <c r="C82" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="83" spans="3:3" ht="70" x14ac:dyDescent="0.2">
-      <c r="C83" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="84" spans="3:3" ht="70" x14ac:dyDescent="0.2">
-      <c r="C84" s="2" t="s">
+      <c r="G103" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7" ht="70" x14ac:dyDescent="0.2">
+      <c r="C104" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7" ht="98" x14ac:dyDescent="0.2">
+      <c r="C105" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7" ht="126" x14ac:dyDescent="0.2">
+      <c r="C106" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="B107" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C107" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="85" spans="3:3" ht="56" x14ac:dyDescent="0.2">
-      <c r="C85" s="2" t="s">
+    <row r="108" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B108" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C108" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="3:3" ht="42" x14ac:dyDescent="0.2">
-      <c r="C86" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="87" spans="3:3" ht="70" x14ac:dyDescent="0.2">
-      <c r="C87" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="88" spans="3:3" ht="42" x14ac:dyDescent="0.2">
-      <c r="C88" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="89" spans="3:3" ht="70" x14ac:dyDescent="0.2">
-      <c r="C89" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="90" spans="3:3" ht="140" x14ac:dyDescent="0.2">
-      <c r="C90" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="91" spans="3:3" ht="98" x14ac:dyDescent="0.2">
-      <c r="C91" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="92" spans="3:3" ht="182" x14ac:dyDescent="0.2">
-      <c r="C92" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="93" spans="3:3" ht="154" x14ac:dyDescent="0.2">
-      <c r="C93" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="94" spans="3:3" ht="84" x14ac:dyDescent="0.2">
-      <c r="C94" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C95" s="2"/>
-    </row>
-    <row r="96" spans="3:3" ht="56" x14ac:dyDescent="0.2">
-      <c r="C96" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="97" spans="3:3" ht="98" x14ac:dyDescent="0.2">
-      <c r="C97" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="98" spans="3:3" ht="98" x14ac:dyDescent="0.2">
-      <c r="C98" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="99" spans="3:3" ht="140" x14ac:dyDescent="0.2">
-      <c r="C99" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="100" spans="3:3" ht="98" x14ac:dyDescent="0.2">
-      <c r="C100" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="101" spans="3:3" ht="98" x14ac:dyDescent="0.2">
-      <c r="C101" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="102" spans="3:3" ht="56" x14ac:dyDescent="0.2">
-      <c r="C102" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="103" spans="3:3" ht="28" x14ac:dyDescent="0.2">
-      <c r="C103" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="104" spans="3:3" ht="28" x14ac:dyDescent="0.2">
-      <c r="C104" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="105" spans="3:3" ht="56" x14ac:dyDescent="0.2">
-      <c r="C105" s="2" t="s">
+    <row r="109" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="B109" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C109" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="106" spans="3:3" ht="70" x14ac:dyDescent="0.2">
-      <c r="C106" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="107" spans="3:3" ht="112" x14ac:dyDescent="0.2">
-      <c r="C107" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="108" spans="3:3" ht="126" x14ac:dyDescent="0.2">
-      <c r="C108" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="109" spans="3:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="C109" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="110" spans="3:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B110" s="2" t="s">
+        <v>210</v>
+      </c>
       <c r="C110" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="3:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:7" ht="153" x14ac:dyDescent="0.2">
+      <c r="B111" s="2" t="s">
+        <v>210</v>
+      </c>
       <c r="C111" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="112" spans="2:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="B112" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="B113" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="B114" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C114" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="3:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="C112" s="3" t="s">
+    <row r="115" spans="2:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="B115" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="B116" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="B117" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B118" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="B119" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C119" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="113" spans="3:3" ht="153" x14ac:dyDescent="0.2">
-      <c r="C113" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="114" spans="3:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="C114" s="3" t="s">
+    <row r="120" spans="2:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="B120" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C120" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="115" spans="3:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="C115" s="3" t="s">
+    <row r="121" spans="2:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="B121" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C121" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="116" spans="3:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="C116" s="3" t="s">
+    <row r="122" spans="2:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="B122" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="B123" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B124" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C124" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="3:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="C117" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="118" spans="3:3" ht="85" x14ac:dyDescent="0.2">
-      <c r="C118" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="119" spans="3:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="C119" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="120" spans="3:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="C120" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="121" spans="3:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="C121" s="3" t="s">
+    <row r="125" spans="2:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="B125" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C125" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="122" spans="3:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="C122" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="123" spans="3:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="C123" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="124" spans="3:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="C124" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="125" spans="3:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="C125" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="126" spans="3:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="B126" s="2" t="s">
+        <v>210</v>
+      </c>
       <c r="C126" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="127" spans="3:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="B127" s="2" t="s">
+        <v>210</v>
+      </c>
       <c r="C127" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="128" spans="3:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B128" s="2" t="s">
+        <v>210</v>
+      </c>
       <c r="C128" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="129" spans="3:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="B129" s="2" t="s">
+        <v>210</v>
+      </c>
       <c r="C129" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="B130" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="B131" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C131" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="130" spans="3:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="C130" s="3" t="s">
+    <row r="132" spans="2:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="B132" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="B133" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="B134" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="B135" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="B136" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="137" spans="2:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="B137" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C137" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="131" spans="3:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="C131" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="132" spans="3:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="C132" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="133" spans="3:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="C133" s="3" t="s">
+    <row r="138" spans="2:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="B138" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="139" spans="2:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="B139" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="140" spans="2:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="B140" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="141" spans="2:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="B141" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C141" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="134" spans="3:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="C134" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="135" spans="3:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="C135" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="136" spans="3:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="C136" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="137" spans="3:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="C137" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="138" spans="3:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="C138" s="3" t="s">
+    <row r="142" spans="2:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="B142" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C142" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="139" spans="3:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="C139" s="3" t="s">
+    <row r="143" spans="2:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="B143" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="144" spans="2:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="B144" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="145" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B145" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C145" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="140" spans="3:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="C140" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="141" spans="3:3" ht="85" x14ac:dyDescent="0.2">
-      <c r="C141" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="142" spans="3:3" ht="85" x14ac:dyDescent="0.2">
-      <c r="C142" s="3" t="s">
+    <row r="146" spans="2:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="B146" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C146" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="143" spans="3:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="C143" s="3" t="s">
+    <row r="147" spans="2:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="B147" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="B148" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="149" spans="2:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="B149" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="150" spans="2:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="B150" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="151" spans="2:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="B151" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C151" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="144" spans="3:3" ht="85" x14ac:dyDescent="0.2">
-      <c r="C144" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="145" spans="3:3" ht="85" x14ac:dyDescent="0.2">
-      <c r="C145" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="146" spans="3:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="C146" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="147" spans="3:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="C147" s="3" t="s">
+    <row r="152" spans="2:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="B152" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="153" spans="2:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="B153" s="2"/>
+      <c r="C153" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="154" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B154" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C154" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="148" spans="3:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="C148" s="3" t="s">
+    <row r="155" spans="2:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="B155" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="156" spans="2:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="B156" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="157" spans="2:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="B157" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C157" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="149" spans="3:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="C149" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="150" spans="3:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="C150" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="151" spans="3:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="C151" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="152" spans="3:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="C152" s="3" t="s">
+    <row r="158" spans="2:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="B158" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C158" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="153" spans="3:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="C153" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="154" spans="3:3" ht="85" x14ac:dyDescent="0.2">
-      <c r="C154" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="155" spans="3:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="C155" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="156" spans="3:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="C156" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="157" spans="3:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="C157" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="158" spans="3:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="C158" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="159" spans="3:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="B159" s="2" t="s">
+        <v>210</v>
+      </c>
       <c r="C159" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="160" spans="3:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="B160" s="2" t="s">
+        <v>210</v>
+      </c>
       <c r="C160" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="161" spans="2:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="B161" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="162" spans="2:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="B162" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="163" spans="2:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="B163" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C163" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="161" spans="3:3" ht="85" x14ac:dyDescent="0.2">
-      <c r="C161" s="3" t="s">
+    <row r="164" spans="2:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="B164" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="165" spans="2:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="B165" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="166" spans="2:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="B166" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C166" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="162" spans="3:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="C162" s="3" t="s">
+    <row r="167" spans="2:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="B167" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C167" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="163" spans="3:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="C163" s="3" t="s">
+    <row r="168" spans="2:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="B168" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C168" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="164" spans="3:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="C164" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="165" spans="3:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="C165" s="3" t="s">
+    <row r="169" spans="2:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="B169" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C169" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="166" spans="3:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="C166" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="167" spans="3:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="C167" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="168" spans="3:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="C168" s="3" t="s">
+    <row r="170" spans="2:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="B170" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C170" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="169" spans="3:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="C169" s="3" t="s">
+    <row r="171" spans="2:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="B171" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="172" spans="2:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="B172" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C172" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="170" spans="3:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="C170" s="3" t="s">
+    <row r="173" spans="2:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="B173" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C173" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="171" spans="3:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="C171" s="3" t="s">
+    <row r="174" spans="2:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="B174" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C174" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="172" spans="3:3" ht="85" x14ac:dyDescent="0.2">
-      <c r="C172" s="3" t="s">
+    <row r="175" spans="2:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="B175" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C175" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="173" spans="3:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="C173" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="174" spans="3:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="C174" s="3" t="s">
+    <row r="176" spans="2:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="B176" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C176" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="175" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C175" s="3"/>
-    </row>
-    <row r="176" spans="3:3" ht="85" x14ac:dyDescent="0.2">
-      <c r="C176" s="3" t="s">
+    <row r="177" spans="2:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="B177" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="178" spans="2:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="B178" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C178" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="177" spans="3:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="C177" s="3" t="s">
+    <row r="179" spans="2:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="B179" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C179" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="178" spans="3:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="C178" s="3" t="s">
+    <row r="180" spans="2:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="B180" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C180" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="179" spans="3:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="C179" s="3" t="s">
+    <row r="181" spans="2:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="B181" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C181" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="180" spans="3:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="C180" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="181" spans="3:3" ht="85" x14ac:dyDescent="0.2">
-      <c r="C181" s="3" t="s">
+    <row r="182" spans="2:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="B182" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="183" spans="2:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="B183" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C183" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="182" spans="3:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="C182" s="3" t="s">
+    <row r="184" spans="2:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="B184" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="185" spans="2:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="B185" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C185" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="183" spans="3:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="C183" s="3" t="s">
+    <row r="186" spans="2:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="B186" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="187" spans="2:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="B187" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C187" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="184" spans="3:3" ht="85" x14ac:dyDescent="0.2">
-      <c r="C184" s="3" t="s">
+    <row r="188" spans="2:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="B188" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="189" spans="2:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="B189" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C189" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="185" spans="3:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="C185" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="186" spans="3:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="C186" s="3" t="s">
+    <row r="190" spans="2:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="B190" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C190" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="187" spans="3:3" ht="85" x14ac:dyDescent="0.2">
-      <c r="C187" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="188" spans="3:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="C188" s="3" t="s">
+    <row r="191" spans="2:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="B191" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C191" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="189" spans="3:3" ht="85" x14ac:dyDescent="0.2">
-      <c r="C189" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="190" spans="3:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="C190" s="3" t="s">
+    <row r="192" spans="2:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="B192" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C192" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="191" spans="3:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="C191" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="192" spans="3:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="C192" s="3" t="s">
+    <row r="193" spans="2:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="B193" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C193" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="193" spans="3:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="C193" s="3" t="s">
+    <row r="194" spans="2:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="B194" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C194" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="194" spans="3:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="C194" s="3" t="s">
+    <row r="195" spans="2:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="B195" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="196" spans="2:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="B196" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="197" spans="2:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="B197" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="198" spans="2:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="B198" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="199" spans="2:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="B199" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="200" spans="2:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="B200" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="201" spans="2:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="B201" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C201" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="195" spans="3:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="C195" s="3" t="s">
+    <row r="202" spans="2:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="B202" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C202" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="196" spans="3:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="C196" s="3" t="s">
+    <row r="203" spans="2:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="B203" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="204" spans="2:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="B204" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="205" spans="2:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="B205" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C205" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="197" spans="3:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="C197" s="3" t="s">
+    <row r="206" spans="2:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="B206" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C206" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="198" spans="3:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="C198" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="199" spans="3:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="C199" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="200" spans="3:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="C200" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="201" spans="3:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="C201" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="202" spans="3:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="C202" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="203" spans="3:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="C203" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="204" spans="3:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="C204" s="3" t="s">
+    <row r="207" spans="2:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="B207" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C207" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="205" spans="3:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="C205" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="206" spans="3:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="C206" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="207" spans="3:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="C207" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="208" spans="3:3" ht="85" x14ac:dyDescent="0.2">
-      <c r="C208" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="209" spans="3:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="C209" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="210" spans="3:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="C210" s="3" t="s">
-        <v>104</v>
+    <row r="208" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B208" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C208" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="209" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C209" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="210" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C210" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="211" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C211" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="212" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C212" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="213" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C213" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="214" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C214" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="215" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C215" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="216" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C216" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="217" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C217" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="218" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C218" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="219" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C219" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="220" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C220" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="221" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C221" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="222" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C222" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="223" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C223" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="224" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C224" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="225" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C225" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="226" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C226" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="227" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C227" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="228" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C228" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="229" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C229" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="230" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C230" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="231" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C231" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="232" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C232" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="233" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C233" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="234" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C234" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="235" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C235" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="236" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C236" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="237" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C237" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="238" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C238" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="239" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C239" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="240" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C240" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="241" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C241" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="242" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C242" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="243" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C243" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="244" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C244" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="245" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C245" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="246" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C246" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="247" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C247" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="248" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C248" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="249" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C249" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="250" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C250" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="251" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C251" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="252" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C252" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="253" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C253" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="254" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C254" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="255" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C255" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="256" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C256" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="257" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C257" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="258" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C258" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="259" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C259" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="260" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C260" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="261" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C261" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="262" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C262" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
